--- a/Notes/Leather_요구사항명세서.xlsx
+++ b/Notes/Leather_요구사항명세서.xlsx
@@ -39,9 +39,6 @@
     <t>아이디는 중복체크을 통해 중복되지 않게 한다</t>
   </si>
   <si>
-    <t>회원아이디와 회원비밀번호는 같지 않아야한다</t>
-  </si>
-  <si>
     <t>비회원</t>
   </si>
   <si>
@@ -147,16 +144,7 @@
     <t>변심반품은 왕복 배송료를 차감한 금액이 환불</t>
   </si>
   <si>
-    <t>회원가입시 성별, 주소를 입력하고 필수로 아이디,비번,비번확인,이름,번호,이메일을 적어야한다.</t>
-  </si>
-  <si>
-    <t>회원아이디는 8-16자 이내로 소문자와 숫자의 조합으로 한다</t>
-  </si>
-  <si>
     <t>회원비밀번호는 8-16자 이내로 한다</t>
-  </si>
-  <si>
-    <t>회원비밀번호는 소문자,특수문자,대문자,숫자 조합으로 한다</t>
   </si>
   <si>
     <t>비회원은 주문자정보입력란에 주문자명, 핸드폰번호를 필수로 적어야한다</t>
@@ -275,6 +263,22 @@
   </si>
   <si>
     <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 필수로 아이디,비번,비번확인,이름,핸드폰 번호,이메일을 입력해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디와 회원비밀번호는 같지 않아야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디는 8-16자 이내로 소문자와 숫자의 조합으로 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원비밀번호는 소문자,숫자 조합으로 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +763,7 @@
   <dimension ref="B3:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,7 +782,7 @@
     </row>
     <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -796,17 +800,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>5</v>
@@ -822,7 +826,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="14"/>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -830,13 +834,13 @@
       <c r="B8" s="11"/>
       <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="11"/>
       <c r="H8" s="14"/>
       <c r="I8" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -844,13 +848,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E9" s="14"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
       <c r="I9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="15"/>
     </row>
@@ -858,15 +862,15 @@
       <c r="B10" s="11"/>
       <c r="C10" s="14"/>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="10"/>
       <c r="H10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>5</v>
@@ -876,23 +880,23 @@
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E11" s="15"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
       <c r="I11" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>5</v>
@@ -900,7 +904,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="15"/>
       <c r="I12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J12" s="15"/>
     </row>
@@ -908,49 +912,49 @@
       <c r="B13" s="11"/>
       <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="12"/>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="14"/>
       <c r="G14" s="10"/>
       <c r="H14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="14"/>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E15" s="14"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
       <c r="I15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="15"/>
     </row>
@@ -958,25 +962,25 @@
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16" s="15"/>
       <c r="G16" s="10"/>
       <c r="H16" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>5</v>
@@ -984,7 +988,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="14"/>
       <c r="I17" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J17" s="11"/>
     </row>
@@ -992,23 +996,23 @@
       <c r="B18" s="12"/>
       <c r="C18" s="15"/>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="15"/>
       <c r="G18" s="11"/>
       <c r="H18" s="14"/>
       <c r="I18" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>5</v>
@@ -1016,7 +1020,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="15"/>
       <c r="I19" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -1024,35 +1028,35 @@
       <c r="B20" s="11"/>
       <c r="C20" s="15"/>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
       <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="15"/>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="15"/>
       <c r="G22" s="10"/>
       <c r="H22" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>5</v>
@@ -1061,10 +1065,10 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>5</v>
@@ -1072,7 +1076,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="14"/>
       <c r="I23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="14"/>
     </row>
@@ -1080,23 +1084,23 @@
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E24" s="8"/>
       <c r="G24" s="11"/>
       <c r="H24" s="14"/>
       <c r="I24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>5</v>
@@ -1104,7 +1108,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="14"/>
       <c r="I25" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J25" s="15"/>
     </row>
@@ -1112,53 +1116,53 @@
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="12"/>
       <c r="H26" s="15"/>
       <c r="I26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8"/>
       <c r="G27" s="10"/>
       <c r="H27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>5</v>
@@ -1168,63 +1172,63 @@
       <c r="B29" s="11"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E29" s="14"/>
       <c r="G29" s="10"/>
       <c r="H29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
       <c r="C30" s="15"/>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" s="15"/>
       <c r="G30" s="12"/>
       <c r="H30" s="15"/>
       <c r="I30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G32" s="10"/>
       <c r="H32" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>5</v>
@@ -1234,17 +1238,17 @@
       <c r="G33" s="12"/>
       <c r="H33" s="15"/>
       <c r="I33" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" s="10"/>
       <c r="H34" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>5</v>
@@ -1254,7 +1258,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="14"/>
       <c r="I35" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J35" s="14"/>
     </row>
@@ -1262,7 +1266,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="14"/>
       <c r="I36" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J36" s="14"/>
     </row>
@@ -1270,7 +1274,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
       <c r="I37" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J37" s="14"/>
     </row>
@@ -1278,7 +1282,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
       <c r="I38" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J38" s="14"/>
     </row>
@@ -1286,29 +1290,18 @@
       <c r="G39" s="12"/>
       <c r="H39" s="15"/>
       <c r="I39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E12:E16"/>
     <mergeCell ref="G34:G39"/>
     <mergeCell ref="H34:H39"/>
     <mergeCell ref="J34:J39"/>
@@ -1318,6 +1311,17 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="E28:E30"/>
@@ -1329,12 +1333,12 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="J6:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/Leather_요구사항명세서.xlsx
+++ b/Notes/Leather_요구사항명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>가죽공예부자재사이트 요구사항명세서</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>주문번호는 자동으로 할당된다.</t>
-  </si>
-  <si>
-    <t>(예:201905080948-00000001)</t>
   </si>
   <si>
     <t>구매시 결제금액이 50000원 이하는 배송비가 3000원 발생하도록 한다</t>
@@ -762,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -782,7 +779,7 @@
     </row>
     <row r="5" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -800,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>5</v>
@@ -834,7 +831,7 @@
       <c r="B8" s="11"/>
       <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="11"/>
@@ -848,7 +845,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="14"/>
       <c r="G9" s="12"/>
@@ -876,16 +873,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="15"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="14"/>
@@ -920,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
@@ -938,7 +935,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>5</v>
@@ -954,11 +951,11 @@
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
       <c r="I15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
       <c r="D16" s="3" t="s">
@@ -967,14 +964,14 @@
       <c r="E16" s="15"/>
       <c r="G16" s="10"/>
       <c r="H16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="13" t="s">
         <v>13</v>
@@ -1019,9 +1016,6 @@
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -1043,6 +1037,9 @@
       <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="I21" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
@@ -1056,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>5</v>
@@ -1068,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>5</v>
@@ -1076,7 +1073,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="14"/>
       <c r="I23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J23" s="14"/>
     </row>
@@ -1084,23 +1081,23 @@
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="8"/>
       <c r="G24" s="11"/>
       <c r="H24" s="14"/>
       <c r="I24" s="3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>5</v>
@@ -1108,7 +1105,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="14"/>
       <c r="I25" s="3" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="J25" s="15"/>
     </row>
@@ -1116,13 +1113,13 @@
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="5"/>
       <c r="G26" s="12"/>
       <c r="H26" s="15"/>
       <c r="I26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>17</v>
@@ -1132,7 +1129,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="8"/>
       <c r="G27" s="10"/>
@@ -1140,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="13" t="s">
         <v>18</v>
@@ -1162,13 +1159,13 @@
         <v>32</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
@@ -1180,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>35</v>
@@ -1196,7 +1193,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="15"/>
       <c r="I30" s="3" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J30" s="15"/>
     </row>
@@ -1216,7 +1213,7 @@
         <v>37</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
@@ -1262,7 +1259,7 @@
       </c>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="G36" s="11"/>
       <c r="H36" s="14"/>
       <c r="I36" s="3" t="s">
@@ -1270,7 +1267,7 @@
       </c>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="7:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
       <c r="I37" s="3" t="s">
@@ -1282,44 +1279,22 @@
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
       <c r="I38" s="3" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G39" s="12"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="J39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="J34:J39"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="J6:J9"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="B28:B31"/>
@@ -1334,11 +1309,30 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="J34:J39"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E12:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
